--- a/足球.xlsx
+++ b/足球.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\学习资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="735">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2956,6 +2956,22 @@
   </si>
   <si>
     <t>平、负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼联VS切尔西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20758,11 +20774,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A175" sqref="A175:XFD175"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="26.1" customHeight="1"/>
@@ -23737,6 +23753,23 @@
       </c>
       <c r="E175" s="13" t="s">
         <v>724</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="13" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A176" s="28">
+        <v>45920</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/足球.xlsx
+++ b/足球.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="738">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2972,6 +2972,18 @@
   </si>
   <si>
     <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯恩茅斯VS纽卡斯尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜、平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔兔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20774,11 +20786,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="26.1" customHeight="1"/>
@@ -23770,6 +23782,20 @@
       </c>
       <c r="E176" s="13" t="s">
         <v>734</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="2" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A177" s="31">
+        <v>45921</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/足球.xlsx
+++ b/足球.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="744">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2984,6 +2984,30 @@
   </si>
   <si>
     <t>兔兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那不勒斯VS比萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC米兰VS莱切</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20786,11 +20810,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="26.1" customHeight="1"/>
@@ -23784,18 +23808,52 @@
         <v>734</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="2" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A177" s="31">
+    <row r="177" spans="1:5" s="13" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A177" s="28">
         <v>45921</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="13" t="s">
         <v>737</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="3" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A178" s="29">
+        <v>45922</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="2" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A179" s="31">
+        <v>45923</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/足球.xlsx
+++ b/足球.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="752">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3008,6 +3008,38 @@
   </si>
   <si>
     <t>AC米兰VS莱切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都灵VS比萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝蒂斯VS诺丁汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫罗纳VS西班牙人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20810,11 +20842,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="26.1" customHeight="1"/>
@@ -23842,18 +23874,72 @@
         <v>742</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="2" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A179" s="31">
+    <row r="179" spans="1:5" s="13" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A179" s="28">
         <v>45923</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="13" t="s">
         <v>741</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="13" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A180" s="28">
+        <v>45924</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="13" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A181" s="28">
+        <v>45925</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="13" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A182" s="28">
+        <v>45926</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
